--- a/RNAseq/Data/PC2genestatsHOM.xlsx
+++ b/RNAseq/Data/PC2genestatsHOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilbar\Documents\MATLAB\DreammistPaper\RNAseq\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EB0E9F-AFCD-4E21-AE1B-4E750DE57A09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6701E2-7AAC-43EB-8BF7-E464BBE20C4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="7430" xr2:uid="{D9D77859-FF50-4E2C-81D0-C99F391DB79E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1210">
   <si>
     <t>GeneT</t>
   </si>
@@ -3654,6 +3654,9 @@
   </si>
   <si>
     <t>zgc:171727</t>
+  </si>
+  <si>
+    <t>log2direction</t>
   </si>
 </sst>
 </file>
@@ -4005,7 +4008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2423F2E8-5505-42C0-ABE5-1CEA7639C137}">
-  <dimension ref="A1:D606"/>
+  <dimension ref="A1:E606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4014,9 +4017,10 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4029,8 +4033,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>379</v>
       </c>
@@ -4043,8 +4050,11 @@
       <c r="D2">
         <v>4.0352331338853453</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>-0.590294595183951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>380</v>
       </c>
@@ -4057,8 +4067,11 @@
       <c r="D3">
         <v>3.0109348399204339</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>-0.88976966435759597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>381</v>
       </c>
@@ -4071,8 +4084,11 @@
       <c r="D4">
         <v>3.8250163693726109</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0.69850482535909497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>382</v>
       </c>
@@ -4085,8 +4101,11 @@
       <c r="D5">
         <v>3.1676961026130335</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>-0.97082327673574897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -4099,8 +4118,11 @@
       <c r="D6">
         <v>6.0487023691873123</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>-0.73029148350720297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -4113,8 +4135,11 @@
       <c r="D7">
         <v>5.0510068110141653</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>-0.567060935390577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>383</v>
       </c>
@@ -4127,8 +4152,11 @@
       <c r="D8">
         <v>3.3970801790850089</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>-0.81355572663790399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>384</v>
       </c>
@@ -4141,8 +4169,11 @@
       <c r="D9">
         <v>3.2647573966790446</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>-0.61221978988662396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>385</v>
       </c>
@@ -4155,8 +4186,11 @@
       <c r="D10">
         <v>4.7959407755627952</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>-0.58226671697907095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -4169,8 +4203,11 @@
       <c r="D11">
         <v>3.090635699603614</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>1.19821853676478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4183,8 +4220,11 @@
       <c r="D12">
         <v>6.0853909713078185</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>-0.40640213851174201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4197,8 +4237,11 @@
       <c r="D13">
         <v>6.1313216543182003</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>0.62959524975118897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>387</v>
       </c>
@@ -4211,8 +4254,11 @@
       <c r="D14">
         <v>3.4409968967839482</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>-0.77016082210719605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -4225,8 +4271,11 @@
       <c r="D15">
         <v>5.0004596215315722</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>-0.319339033026452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>388</v>
       </c>
@@ -4239,8 +4288,11 @@
       <c r="D16">
         <v>3.0664508992127426</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>-0.54497970713244004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>389</v>
       </c>
@@ -4253,8 +4305,11 @@
       <c r="D17">
         <v>3.9069783974549681</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>-0.71764435172327001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -4267,8 +4322,11 @@
       <c r="D18">
         <v>4.34964243323508</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>0.40000335922263403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -4281,8 +4339,11 @@
       <c r="D19">
         <v>2.9727342220373045</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>-0.65799281694697498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -4295,8 +4356,11 @@
       <c r="D20">
         <v>5.9339354473842683</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>-0.42513728482080598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -4309,8 +4373,11 @@
       <c r="D21">
         <v>3.9359752666216874</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>0.549806049100657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>393</v>
       </c>
@@ -4323,8 +4390,11 @@
       <c r="D22">
         <v>3.2938172803398276</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>-0.52833828003499905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -4337,8 +4407,11 @@
       <c r="D23">
         <v>3.674173425636508</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0.415484641041865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>395</v>
       </c>
@@ -4351,8 +4424,11 @@
       <c r="D24">
         <v>4.6253766739628368</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>0.746359839247134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>396</v>
       </c>
@@ -4365,8 +4441,11 @@
       <c r="D25">
         <v>2.9666838031351617</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0.47922630069042499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>397</v>
       </c>
@@ -4379,8 +4458,11 @@
       <c r="D26">
         <v>4.894790595012072</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>0.51598598664571205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -4393,8 +4475,11 @@
       <c r="D27">
         <v>3.5611970051423181</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>-1.68129514667594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>399</v>
       </c>
@@ -4407,8 +4492,11 @@
       <c r="D28">
         <v>3.3102833000753455</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>-0.88768451075369403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>400</v>
       </c>
@@ -4421,8 +4509,11 @@
       <c r="D29">
         <v>4.8099947539475219</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>-0.35908223115967303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4435,8 +4526,11 @@
       <c r="D30">
         <v>7.5525392226326273</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>0.60056109663108503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>401</v>
       </c>
@@ -4449,8 +4543,11 @@
       <c r="D31">
         <v>2.9270627254272203</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>-1.9754931214371501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -4463,8 +4560,11 @@
       <c r="D32">
         <v>5.4974447069406764</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>0.59623038837355902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>402</v>
       </c>
@@ -4477,8 +4577,11 @@
       <c r="D33">
         <v>3.2177384288267015</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>0.63007710838554398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -4491,8 +4594,11 @@
       <c r="D34">
         <v>6.800087539267909</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>0.73475633455267597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>403</v>
       </c>
@@ -4505,8 +4611,11 @@
       <c r="D35">
         <v>3.2925626342078576</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>-1.0377223375190401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -4519,8 +4628,11 @@
       <c r="D36">
         <v>5.1039288339814988</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>0.45071841985349098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>404</v>
       </c>
@@ -4533,8 +4645,11 @@
       <c r="D37">
         <v>3.0873860994596787</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>-1.18904997185007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>405</v>
       </c>
@@ -4547,8 +4662,11 @@
       <c r="D38">
         <v>3.3179854019469142</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>-0.62732956215311397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -4561,8 +4679,11 @@
       <c r="D39">
         <v>5.3468729119404781</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>0.518467419794298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>406</v>
       </c>
@@ -4575,8 +4696,11 @@
       <c r="D40">
         <v>4.8162313197590363</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>0.69353521184108302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>407</v>
       </c>
@@ -4589,8 +4713,11 @@
       <c r="D41">
         <v>3.487259421689934</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>-0.41020440971799399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>408</v>
       </c>
@@ -4603,8 +4730,11 @@
       <c r="D42">
         <v>4.7961634971563978</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>-1.5635746718457799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>409</v>
       </c>
@@ -4617,8 +4747,11 @@
       <c r="D43">
         <v>4.0674608252186628</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>0.73394502614659096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -4631,8 +4764,11 @@
       <c r="D44">
         <v>6.5345278209212756</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>-0.4391143821513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -4645,8 +4781,11 @@
       <c r="D45">
         <v>3.2123978995195186</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>-0.35233970028032002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>411</v>
       </c>
@@ -4659,8 +4798,11 @@
       <c r="D46">
         <v>3.8785576044666055</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>-1.2425327650273199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4673,8 +4815,11 @@
       <c r="D47">
         <v>6.8048227876162075</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>-0.55087929271498604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -4687,8 +4832,11 @@
       <c r="D48">
         <v>5.3592886472831287</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>-1.2045230533417599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>412</v>
       </c>
@@ -4701,8 +4849,11 @@
       <c r="D49">
         <v>2.9790890038939217</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>1.16368084272061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>413</v>
       </c>
@@ -4715,8 +4866,11 @@
       <c r="D50">
         <v>3.9651622390686905</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>0.78034246233541005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -4729,8 +4883,11 @@
       <c r="D51">
         <v>5.5612277515815443</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>0.63510497238602803</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>414</v>
       </c>
@@ -4743,8 +4900,11 @@
       <c r="D52">
         <v>3.9726518210988413</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>0.68670408084143197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>415</v>
       </c>
@@ -4757,8 +4917,11 @@
       <c r="D53">
         <v>3.169022601993567</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>0.84721217016938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>416</v>
       </c>
@@ -4771,8 +4934,11 @@
       <c r="D54">
         <v>3.2669690466096251</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>0.62207960797093997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4785,8 +4951,11 @@
       <c r="D55">
         <v>6.5426673949710343</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>0.65678157818326899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -4799,8 +4968,11 @@
       <c r="D56">
         <v>6.647485003184129</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>-0.60393912329847199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -4813,8 +4985,11 @@
       <c r="D57">
         <v>5.5766094412028329</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>0.69697836846737105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +5002,11 @@
       <c r="D58">
         <v>6.9573374051045072</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>0.81082688388254798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -4841,8 +5019,11 @@
       <c r="D59">
         <v>5.7217653650271592</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>-0.517374978657824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>417</v>
       </c>
@@ -4855,8 +5036,11 @@
       <c r="D60">
         <v>3.0581747108078496</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>-0.43773794794614101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>418</v>
       </c>
@@ -4869,8 +5053,11 @@
       <c r="D61">
         <v>4.0293782070224484</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>-0.44519972052940299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>419</v>
       </c>
@@ -4883,8 +5070,11 @@
       <c r="D62">
         <v>4.7473339114098581</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>-0.64628305707139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>420</v>
       </c>
@@ -4897,8 +5087,11 @@
       <c r="D63">
         <v>4.4999469014486202</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>-0.33316816194600402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -4911,8 +5104,11 @@
       <c r="D64">
         <v>5.3491364322002788</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>1.53044191084954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -4925,8 +5121,11 @@
       <c r="D65">
         <v>5.629997771769264</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>0.56625102679683903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>421</v>
       </c>
@@ -4939,8 +5138,11 @@
       <c r="D66">
         <v>3.5552650594161852</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>-0.51091808794966398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -4953,8 +5155,11 @@
       <c r="D67">
         <v>5.4345629110977054</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>-0.84066433410893204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -4967,8 +5172,11 @@
       <c r="D68">
         <v>6.5010798087851578</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>-0.96777825739733903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>422</v>
       </c>
@@ -4981,8 +5189,11 @@
       <c r="D69">
         <v>3.4323640052262347</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>0.87689586058593005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>423</v>
       </c>
@@ -4995,8 +5206,11 @@
       <c r="D70">
         <v>3.5351088028077302</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>0.518739195205143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>424</v>
       </c>
@@ -5009,8 +5223,11 @@
       <c r="D71">
         <v>3.7177353366706165</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>-0.69109660146611496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>425</v>
       </c>
@@ -5023,8 +5240,11 @@
       <c r="D72">
         <v>3.1810280017713368</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>0.96405287502780801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -5037,8 +5257,11 @@
       <c r="D73">
         <v>4.4832705536668138</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>0.62769834259898805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>427</v>
       </c>
@@ -5051,8 +5274,11 @@
       <c r="D74">
         <v>4.7731041365450464</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>1.0468900956828799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>428</v>
       </c>
@@ -5065,8 +5291,11 @@
       <c r="D75">
         <v>4.3489909117862817</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>0.87254351816973597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>429</v>
       </c>
@@ -5079,8 +5308,11 @@
       <c r="D76">
         <v>3.0851458477303675</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>-0.50928917864506296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>430</v>
       </c>
@@ -5093,8 +5325,11 @@
       <c r="D77">
         <v>4.7732978989969812</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>1.65825652595109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>431</v>
       </c>
@@ -5107,8 +5342,11 @@
       <c r="D78">
         <v>3.5652481035732522</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>-0.670001403228633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>432</v>
       </c>
@@ -5121,8 +5359,11 @@
       <c r="D79">
         <v>4.8362113978352763</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>0.84755025436255504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>433</v>
       </c>
@@ -5135,8 +5376,11 @@
       <c r="D80">
         <v>3.0917999568101759</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>-1.23931486306212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>434</v>
       </c>
@@ -5149,8 +5393,11 @@
       <c r="D81">
         <v>3.3136649451918889</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>-0.81494581329323901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>435</v>
       </c>
@@ -5163,8 +5410,11 @@
       <c r="D82">
         <v>3.536239732774189</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>-1.01494064486951</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>436</v>
       </c>
@@ -5177,8 +5427,11 @@
       <c r="D83">
         <v>4.4065101327042369</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>0.66263713529949297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>437</v>
       </c>
@@ -5191,8 +5444,11 @@
       <c r="D84">
         <v>3.1401071444644328</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>0.80527068122331602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -5205,8 +5461,11 @@
       <c r="D85">
         <v>7.1303298175733918</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>-0.65462433304738399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -5219,8 +5478,11 @@
       <c r="D86">
         <v>5.8007994761018518</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>-1.02761699955548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>438</v>
       </c>
@@ -5233,8 +5495,11 @@
       <c r="D87">
         <v>4.6822441772937218</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>0.68912325190872703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -5247,8 +5512,11 @@
       <c r="D88">
         <v>5.1906872451222457</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>0.61648428497379504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -5261,8 +5529,11 @@
       <c r="D89">
         <v>5.049148002046171</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>0.48762942631959499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>439</v>
       </c>
@@ -5275,8 +5546,11 @@
       <c r="D90">
         <v>3.3039401142706497</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>-0.85607627938193198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -5289,8 +5563,11 @@
       <c r="D91">
         <v>6.8007591592289192</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>0.66158910047687303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>440</v>
       </c>
@@ -5303,8 +5580,11 @@
       <c r="D92">
         <v>3.985597906115677</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>0.79505536392329301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>441</v>
       </c>
@@ -5317,8 +5597,11 @@
       <c r="D93">
         <v>4.5698683697943299</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>-1.2541117232887899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>442</v>
       </c>
@@ -5331,8 +5614,11 @@
       <c r="D94">
         <v>4.2993073461411004</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>0.43392833044265899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -5345,8 +5631,11 @@
       <c r="D95">
         <v>5.8043014752330917</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>-0.46072694652419499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>443</v>
       </c>
@@ -5359,8 +5648,11 @@
       <c r="D96">
         <v>3.9681021457124706</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>-0.29560417379339698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>444</v>
       </c>
@@ -5373,8 +5665,11 @@
       <c r="D97">
         <v>2.9345394214545149</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>0.68547221925513802</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>445</v>
       </c>
@@ -5387,8 +5682,11 @@
       <c r="D98">
         <v>3.9054126908744244</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>0.75581419170989195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>446</v>
       </c>
@@ -5401,8 +5699,11 @@
       <c r="D99">
         <v>4.4224429579746252</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>0.87446923659032305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>447</v>
       </c>
@@ -5415,8 +5716,11 @@
       <c r="D100">
         <v>3.7054602969632344</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>-1.2222005448145301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>448</v>
       </c>
@@ -5429,8 +5733,11 @@
       <c r="D101">
         <v>3.7542271828754155</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>1.1468251494149999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -5443,8 +5750,11 @@
       <c r="D102">
         <v>5.1777409920571866</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>0.57464782537929004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>138</v>
       </c>
@@ -5457,8 +5767,11 @@
       <c r="D103">
         <v>4.9899176529418083</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>0.61077277330064905</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>449</v>
       </c>
@@ -5471,8 +5784,11 @@
       <c r="D104">
         <v>3.5261749635788489</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>-0.63391576558708995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>450</v>
       </c>
@@ -5485,8 +5801,11 @@
       <c r="D105">
         <v>4.4420763324573889</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>-0.53262751802721398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -5499,8 +5818,11 @@
       <c r="D106">
         <v>5.4886328440517635</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>0.36348358387346902</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>451</v>
       </c>
@@ -5513,8 +5835,11 @@
       <c r="D107">
         <v>4.2538536896561219</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>-0.42513753948997202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>452</v>
       </c>
@@ -5527,8 +5852,11 @@
       <c r="D108">
         <v>3.1795811990306291</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>0.70720395226228805</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -5541,8 +5869,11 @@
       <c r="D109">
         <v>7.4177297825821098</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>1.0027033049559999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>453</v>
       </c>
@@ -5555,8 +5886,11 @@
       <c r="D110">
         <v>3.2471366927024041</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>-1.2795089530477299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>454</v>
       </c>
@@ -5569,8 +5903,11 @@
       <c r="D111">
         <v>3.8502692227443913</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>-1.27169497702149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>455</v>
       </c>
@@ -5583,8 +5920,11 @@
       <c r="D112">
         <v>4.1115667717399589</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>0.90060480752405203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -5597,8 +5937,11 @@
       <c r="D113">
         <v>5.974455927415133</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>-0.649414514049932</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>456</v>
       </c>
@@ -5611,8 +5954,11 @@
       <c r="D114">
         <v>3.3185897175616921</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>0.68378254795883497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>457</v>
       </c>
@@ -5625,8 +5971,11 @@
       <c r="D115">
         <v>4.9459493555458351</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>1.02906453307455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>458</v>
       </c>
@@ -5639,8 +5988,11 @@
       <c r="D116">
         <v>3.6940814423695429</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>-0.59030238947376901</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -5653,8 +6005,11 @@
       <c r="D117">
         <v>6.3935715616997442</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>-0.90666380282008496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -5667,8 +6022,11 @@
       <c r="D118">
         <v>5.7877711014694766</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>-0.45893660541334202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>459</v>
       </c>
@@ -5681,8 +6039,11 @@
       <c r="D119">
         <v>4.9703104437039505</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>-0.41817213093352001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>460</v>
       </c>
@@ -5695,8 +6056,11 @@
       <c r="D120">
         <v>2.948750458379358</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>1.2313390357890599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>461</v>
       </c>
@@ -5709,8 +6073,11 @@
       <c r="D121">
         <v>4.4376530829866008</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>0.71087283667230605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>462</v>
       </c>
@@ -5723,8 +6090,11 @@
       <c r="D122">
         <v>3.9759084859614027</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>0.99674747750544102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>143</v>
       </c>
@@ -5737,8 +6107,11 @@
       <c r="D123">
         <v>5.8043329358838918</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>-0.99353141911737997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>463</v>
       </c>
@@ -5751,8 +6124,11 @@
       <c r="D124">
         <v>4.4008216936620768</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>0.88785594801518397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>464</v>
       </c>
@@ -5765,8 +6141,11 @@
       <c r="D125">
         <v>3.1767236231226597</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>-0.621101720154697</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>465</v>
       </c>
@@ -5779,8 +6158,11 @@
       <c r="D126">
         <v>2.9457182223535088</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>-0.83988941151283902</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -5793,8 +6175,11 @@
       <c r="D127">
         <v>4.4174604622153364</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>-0.66453914218099697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>467</v>
       </c>
@@ -5807,8 +6192,11 @@
       <c r="D128">
         <v>2.9658930668375465</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>0.51633464853824296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>468</v>
       </c>
@@ -5821,8 +6209,11 @@
       <c r="D129">
         <v>3.1456449290738804</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>0.54758520335223704</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>469</v>
       </c>
@@ -5835,8 +6226,11 @@
       <c r="D130">
         <v>4.0958986488213087</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>-1.5841777499020799</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>470</v>
       </c>
@@ -5849,8 +6243,11 @@
       <c r="D131">
         <v>4.5248298120626078</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>0.83077411431041004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>471</v>
       </c>
@@ -5863,8 +6260,11 @@
       <c r="D132">
         <v>4.1620697929132167</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>0.894169201565292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>472</v>
       </c>
@@ -5877,8 +6277,11 @@
       <c r="D133">
         <v>3.0216793658284495</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>0.91526741829157598</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -5891,8 +6294,11 @@
       <c r="D134">
         <v>6.0643179819782169</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>-0.79104284511939404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>473</v>
       </c>
@@ -5905,8 +6311,11 @@
       <c r="D135">
         <v>3.6898702705152986</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>0.56288757289914804</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>474</v>
       </c>
@@ -5919,8 +6328,11 @@
       <c r="D136">
         <v>3.5834694483722265</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>0.470773335333462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>475</v>
       </c>
@@ -5933,8 +6345,11 @@
       <c r="D137">
         <v>3.4121742662317716</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>-1.5149155534771599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>476</v>
       </c>
@@ -5947,8 +6362,11 @@
       <c r="D138">
         <v>2.916424879482856</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>-1.4842949942229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>477</v>
       </c>
@@ -5961,8 +6379,11 @@
       <c r="D139">
         <v>2.9627372517469532</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>0.73582571676514297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -5975,8 +6396,11 @@
       <c r="D140">
         <v>5.2748523819782758</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>0.48591681220759902</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>478</v>
       </c>
@@ -5989,8 +6413,11 @@
       <c r="D141">
         <v>2.9114026732573408</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>0.69807312311469105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>479</v>
       </c>
@@ -6003,8 +6430,11 @@
       <c r="D142">
         <v>3.3288901613621831</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>-0.65526003916127296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>480</v>
       </c>
@@ -6017,8 +6447,11 @@
       <c r="D143">
         <v>4.4449591836443307</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>-0.68621881492644499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>481</v>
       </c>
@@ -6031,8 +6464,11 @@
       <c r="D144">
         <v>3.304028560513927</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <v>-0.83151366790009196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>482</v>
       </c>
@@ -6045,8 +6481,11 @@
       <c r="D145">
         <v>3.271167304570699</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <v>0.732090141629403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>483</v>
       </c>
@@ -6059,8 +6498,11 @@
       <c r="D146">
         <v>4.1976665084206211</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>-0.75419043415379505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6073,8 +6515,11 @@
       <c r="D147">
         <v>5.661366692530426</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>0.36312887961081902</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>484</v>
       </c>
@@ -6087,8 +6532,11 @@
       <c r="D148">
         <v>4.4347489383805492</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>-0.78131444446847298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>485</v>
       </c>
@@ -6101,8 +6549,11 @@
       <c r="D149">
         <v>3.9076641779704722</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>-0.52641510341235798</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>486</v>
       </c>
@@ -6115,8 +6566,11 @@
       <c r="D150">
         <v>4.2197706128962107</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>-0.65550252222343797</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>487</v>
       </c>
@@ -6129,8 +6583,11 @@
       <c r="D151">
         <v>3.5827608193805927</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>0.51830784454374401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>488</v>
       </c>
@@ -6143,8 +6600,11 @@
       <c r="D152">
         <v>3.658961708821078</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>0.50497513345746203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>489</v>
       </c>
@@ -6157,8 +6617,11 @@
       <c r="D153">
         <v>4.0053284092298025</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>0.85178730689468996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>490</v>
       </c>
@@ -6171,8 +6634,11 @@
       <c r="D154">
         <v>4.3024563085148655</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>-1.01687917246265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>491</v>
       </c>
@@ -6185,8 +6651,11 @@
       <c r="D155">
         <v>3.1057428061709134</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>-0.48179737412745699</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>492</v>
       </c>
@@ -6199,8 +6668,11 @@
       <c r="D156">
         <v>3.0933611576794222</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>-0.70252245497721</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -6213,8 +6685,11 @@
       <c r="D157">
         <v>6.4208442208485401</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>-0.74470568884447597</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -6227,8 +6702,11 @@
       <c r="D158">
         <v>5.610093541992617</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>-0.62623519327477895</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>493</v>
       </c>
@@ -6241,8 +6719,11 @@
       <c r="D159">
         <v>4.5469738132580266</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>-0.85954303434845203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>494</v>
       </c>
@@ -6255,8 +6736,11 @@
       <c r="D160">
         <v>4.3464908795863035</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>-0.403750354378696</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -6269,8 +6753,11 @@
       <c r="D161">
         <v>6.1992812031576205</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>0.68865373936648799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -6283,8 +6770,11 @@
       <c r="D162">
         <v>3.7106867001866055</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>-1.2662315666061901</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>496</v>
       </c>
@@ -6297,8 +6787,11 @@
       <c r="D163">
         <v>3.732611124925052</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>0.77778541776443799</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>497</v>
       </c>
@@ -6311,8 +6804,11 @@
       <c r="D164">
         <v>3.287557264096566</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>-1.12874621657018</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>498</v>
       </c>
@@ -6325,8 +6821,11 @@
       <c r="D165">
         <v>4.4084735538937707</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>0.59259054861835503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>499</v>
       </c>
@@ -6339,8 +6838,11 @@
       <c r="D166">
         <v>3.3534761003733107</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>0.55210461114138998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -6353,8 +6855,11 @@
       <c r="D167">
         <v>3.8564756525722692</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>0.82971922540242105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>501</v>
       </c>
@@ -6367,8 +6872,11 @@
       <c r="D168">
         <v>3.0694596545917947</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>-0.73765086536741897</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>502</v>
       </c>
@@ -6381,8 +6889,11 @@
       <c r="D169">
         <v>3.2789186627454532</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>0.43962906124017798</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>503</v>
       </c>
@@ -6395,8 +6906,11 @@
       <c r="D170">
         <v>4.8914371032941739</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>0.46776304820810599</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>504</v>
       </c>
@@ -6409,8 +6923,11 @@
       <c r="D171">
         <v>3.6229586144095718</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <v>0.48589142312831202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>150</v>
       </c>
@@ -6423,8 +6940,11 @@
       <c r="D172">
         <v>5.2567445359889753</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <v>1.0430771741796001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -6437,8 +6957,11 @@
       <c r="D173">
         <v>8.8652493720649286</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <v>-0.54767842677589296</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>505</v>
       </c>
@@ -6451,8 +6974,11 @@
       <c r="D174">
         <v>4.549781250487281</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>0.762697032209119</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>506</v>
       </c>
@@ -6465,8 +6991,11 @@
       <c r="D175">
         <v>3.3110235271995525</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>0.61613680588984299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>151</v>
       </c>
@@ -6479,8 +7008,11 @@
       <c r="D176">
         <v>5.3997605155322708</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>0.42450411179337399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>507</v>
       </c>
@@ -6493,8 +7025,11 @@
       <c r="D177">
         <v>4.8585530721373917</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>0.83576522717593105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>152</v>
       </c>
@@ -6507,8 +7042,11 @@
       <c r="D178">
         <v>5.7589903689150459</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <v>0.51665452081754804</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>508</v>
       </c>
@@ -6521,8 +7059,11 @@
       <c r="D179">
         <v>3.051738173717947</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <v>-0.72877966771173397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>509</v>
       </c>
@@ -6535,8 +7076,11 @@
       <c r="D180">
         <v>4.9426523104595264</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <v>0.38015262430054397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -6549,8 +7093,11 @@
       <c r="D181">
         <v>5.214405209844081</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <v>-0.729213454783319</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>510</v>
       </c>
@@ -6563,8 +7110,11 @@
       <c r="D182">
         <v>3.836780700120304</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <v>-0.417448466680929</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -6577,8 +7127,11 @@
       <c r="D183">
         <v>4.213773269475972</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <v>-0.84658632033357994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>154</v>
       </c>
@@ -6591,8 +7144,11 @@
       <c r="D184">
         <v>5.7047049236553757</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <v>-0.35417822668605697</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>155</v>
       </c>
@@ -6605,8 +7161,11 @@
       <c r="D185">
         <v>6.3462762232930148</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <v>0.57820368014357904</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>512</v>
       </c>
@@ -6619,8 +7178,11 @@
       <c r="D186">
         <v>3.6554268302998674</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <v>-0.83798561115456405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>156</v>
       </c>
@@ -6633,8 +7195,11 @@
       <c r="D187">
         <v>5.0419029508419966</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>-0.42514863924345397</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>513</v>
       </c>
@@ -6647,8 +7212,11 @@
       <c r="D188">
         <v>4.6085448020092459</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <v>0.68095688630553997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>514</v>
       </c>
@@ -6661,8 +7229,11 @@
       <c r="D189">
         <v>4.5393435661282391</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <v>0.61869796244552</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>515</v>
       </c>
@@ -6675,8 +7246,11 @@
       <c r="D190">
         <v>4.2713538433864517</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <v>-0.81632013828888095</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>516</v>
       </c>
@@ -6689,8 +7263,11 @@
       <c r="D191">
         <v>4.518831573996323</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <v>0.47790098648704599</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -6703,8 +7280,11 @@
       <c r="D192">
         <v>6.6514351474771951</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>0.54191313238231897</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>517</v>
       </c>
@@ -6717,8 +7297,11 @@
       <c r="D193">
         <v>3.1888891599211817</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>0.73260157225450795</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>518</v>
       </c>
@@ -6731,8 +7314,11 @@
       <c r="D194">
         <v>3.5321285704243013</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <v>0.60357935280617803</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>519</v>
       </c>
@@ -6745,8 +7331,11 @@
       <c r="D195">
         <v>4.0337680422376474</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>0.520719207265952</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>520</v>
       </c>
@@ -6759,8 +7348,11 @@
       <c r="D196">
         <v>3.4520477861597296</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <v>1.3163676979682399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>521</v>
       </c>
@@ -6773,8 +7365,11 @@
       <c r="D197">
         <v>3.9271537992200858</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <v>-0.67563092702516803</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>157</v>
       </c>
@@ -6787,8 +7382,11 @@
       <c r="D198">
         <v>5.6075682790453998</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <v>-0.728610939295392</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>522</v>
       </c>
@@ -6801,8 +7399,11 @@
       <c r="D199">
         <v>2.9117119820280686</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <v>0.58419918089526701</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>523</v>
       </c>
@@ -6815,8 +7416,11 @@
       <c r="D200">
         <v>3.5451677019800538</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <v>1.1516964977607</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>524</v>
       </c>
@@ -6829,8 +7433,11 @@
       <c r="D201">
         <v>4.3904967116255627</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E201">
+        <v>0.52942278081210803</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>525</v>
       </c>
@@ -6843,8 +7450,11 @@
       <c r="D202">
         <v>4.8183982451351897</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E202">
+        <v>-0.57089363803812498</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>526</v>
       </c>
@@ -6857,8 +7467,11 @@
       <c r="D203">
         <v>4.216861481836216</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E203">
+        <v>0.93002097882832102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>527</v>
       </c>
@@ -6871,8 +7484,11 @@
       <c r="D204">
         <v>4.231013357207587</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E204">
+        <v>1.1921975481959299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -6885,8 +7501,11 @@
       <c r="D205">
         <v>4.1360048524442146</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <v>0.91228183500184801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>529</v>
       </c>
@@ -6899,8 +7518,11 @@
       <c r="D206">
         <v>3.0086943117722913</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>0.52398426044306001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -6913,8 +7535,11 @@
       <c r="D207">
         <v>7.0611590364873296</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>-0.59190239693380797</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -6927,8 +7552,11 @@
       <c r="D208">
         <v>6.8331112775979612</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>0.83042541889661903</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>158</v>
       </c>
@@ -6941,8 +7569,11 @@
       <c r="D209">
         <v>5.8700247464423194</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>0.80107433614181001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>530</v>
       </c>
@@ -6955,8 +7586,11 @@
       <c r="D210">
         <v>3.9706881928383035</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>1.73792412271855</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>531</v>
       </c>
@@ -6969,8 +7603,11 @@
       <c r="D211">
         <v>4.2295854920648841</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <v>1.2315862725211699</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>532</v>
       </c>
@@ -6983,8 +7620,11 @@
       <c r="D212">
         <v>3.0945073755166419</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>-0.499237824097232</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>533</v>
       </c>
@@ -6997,8 +7637,11 @@
       <c r="D213">
         <v>3.6785700627924767</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>-0.50834692491375499</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>534</v>
       </c>
@@ -7011,8 +7654,11 @@
       <c r="D214">
         <v>3.2629254846754776</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>-0.72266113908368501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>535</v>
       </c>
@@ -7025,8 +7671,11 @@
       <c r="D215">
         <v>3.9873325235718973</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>-0.42456772796327102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>536</v>
       </c>
@@ -7039,8 +7688,11 @@
       <c r="D216">
         <v>3.0888201551749157</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>-0.97608008768672405</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>537</v>
       </c>
@@ -7053,8 +7705,11 @@
       <c r="D217">
         <v>3.302642162237023</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>0.73736046395749799</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>159</v>
       </c>
@@ -7067,8 +7722,11 @@
       <c r="D218">
         <v>5.3700735559505901</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>-0.67804403032202298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>538</v>
       </c>
@@ -7081,8 +7739,11 @@
       <c r="D219">
         <v>3.8877366067678554</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E219">
+        <v>-0.51945357452705498</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>539</v>
       </c>
@@ -7095,8 +7756,11 @@
       <c r="D220">
         <v>4.0589172367072281</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E220">
+        <v>-1.01744764992561</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>540</v>
       </c>
@@ -7109,8 +7773,11 @@
       <c r="D221">
         <v>3.0444247156605675</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E221">
+        <v>0.60992202090476699</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>541</v>
       </c>
@@ -7123,8 +7790,11 @@
       <c r="D222">
         <v>3.5175753331533466</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E222">
+        <v>1.2301038870987799</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>542</v>
       </c>
@@ -7137,8 +7807,11 @@
       <c r="D223">
         <v>3.1493278558553377</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E223">
+        <v>0.83928037874821904</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>160</v>
       </c>
@@ -7151,8 +7824,11 @@
       <c r="D224">
         <v>5.1835973037423191</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>-0.58063469940689405</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>543</v>
       </c>
@@ -7165,8 +7841,11 @@
       <c r="D225">
         <v>3.5997987837348959</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E225">
+        <v>0.53668158480690697</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>161</v>
       </c>
@@ -7179,8 +7858,11 @@
       <c r="D226">
         <v>5.3556867656773175</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E226">
+        <v>-0.66652674084749797</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>162</v>
       </c>
@@ -7193,8 +7875,11 @@
       <c r="D227">
         <v>5.8999824348243104</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E227">
+        <v>-0.56611193408681504</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>544</v>
       </c>
@@ -7207,8 +7892,11 @@
       <c r="D228">
         <v>4.0622276845735934</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E228">
+        <v>0.39189479494697599</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>545</v>
       </c>
@@ -7221,8 +7909,11 @@
       <c r="D229">
         <v>4.315651032077648</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E229">
+        <v>-0.69616671636841598</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>546</v>
       </c>
@@ -7235,8 +7926,11 @@
       <c r="D230">
         <v>4.0008529135827713</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E230">
+        <v>-0.74956680026602296</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>547</v>
       </c>
@@ -7249,8 +7943,11 @@
       <c r="D231">
         <v>4.8640093412977361</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E231">
+        <v>1.2288773607788399</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>548</v>
       </c>
@@ -7263,8 +7960,11 @@
       <c r="D232">
         <v>4.9610441585174732</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E232">
+        <v>-1.0725971787433599</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>549</v>
       </c>
@@ -7277,8 +7977,11 @@
       <c r="D233">
         <v>4.3049200646894361</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E233">
+        <v>0.69589606495088496</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>550</v>
       </c>
@@ -7291,8 +7994,11 @@
       <c r="D234">
         <v>3.5827022984968457</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E234">
+        <v>0.63346898194759604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -7305,8 +8011,11 @@
       <c r="D235">
         <v>6.9663578627362392</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>-0.40155869481714601</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>163</v>
       </c>
@@ -7319,8 +8028,11 @@
       <c r="D236">
         <v>6.459848669476278</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E236">
+        <v>1.0720139041430701</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>551</v>
       </c>
@@ -7333,8 +8045,11 @@
       <c r="D237">
         <v>4.0051916237097185</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E237">
+        <v>-0.60736648813347205</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>552</v>
       </c>
@@ -7347,8 +8062,11 @@
       <c r="D238">
         <v>4.9470910912855661</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E238">
+        <v>0.73192687576001303</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>553</v>
       </c>
@@ -7361,8 +8079,11 @@
       <c r="D239">
         <v>3.0775024087990861</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E239">
+        <v>1.2001559747269599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>164</v>
       </c>
@@ -7375,8 +8096,11 @@
       <c r="D240">
         <v>5.5664596727698354</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E240">
+        <v>0.59098613010861301</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>165</v>
       </c>
@@ -7389,8 +8113,11 @@
       <c r="D241">
         <v>5.8040327465536228</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E241">
+        <v>0.52383229763462802</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>166</v>
       </c>
@@ -7403,8 +8130,11 @@
       <c r="D242">
         <v>5.2727281543408324</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E242">
+        <v>0.49678375680229903</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>554</v>
       </c>
@@ -7417,8 +8147,11 @@
       <c r="D243">
         <v>3.0455472287161314</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E243">
+        <v>-0.758629575813909</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>555</v>
       </c>
@@ -7431,8 +8164,11 @@
       <c r="D244">
         <v>4.0757318211316624</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E244">
+        <v>0.87924753378556797</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>556</v>
       </c>
@@ -7445,8 +8181,11 @@
       <c r="D245">
         <v>3.5081993921178745</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E245">
+        <v>-0.65623957040498904</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>167</v>
       </c>
@@ -7459,8 +8198,11 @@
       <c r="D246">
         <v>6.0943467028244553</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E246">
+        <v>0.475845199056048</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>557</v>
       </c>
@@ -7473,8 +8215,11 @@
       <c r="D247">
         <v>4.3752325973495827</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E247">
+        <v>0.61924307502630904</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -7487,8 +8232,11 @@
       <c r="D248">
         <v>8.6108975495117885</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E248">
+        <v>0.67156383498799999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>558</v>
       </c>
@@ -7501,8 +8249,11 @@
       <c r="D249">
         <v>4.938089775350619</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E249">
+        <v>0.37514634545494802</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>559</v>
       </c>
@@ -7515,8 +8266,11 @@
       <c r="D250">
         <v>4.2800205830476967</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E250">
+        <v>0.77489142186567295</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>560</v>
       </c>
@@ -7529,8 +8283,11 @@
       <c r="D251">
         <v>4.4212156197754116</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E251">
+        <v>-0.62190376949827497</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>561</v>
       </c>
@@ -7543,8 +8300,11 @@
       <c r="D252">
         <v>3.4014790616812216</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E252">
+        <v>-1.0351118026585799</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>562</v>
       </c>
@@ -7557,8 +8317,11 @@
       <c r="D253">
         <v>3.4834093172093223</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E253">
+        <v>-0.63433804011976602</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>563</v>
       </c>
@@ -7571,8 +8334,11 @@
       <c r="D254">
         <v>4.5408942374945127</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E254">
+        <v>1.21685669749491</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>564</v>
       </c>
@@ -7585,8 +8351,11 @@
       <c r="D255">
         <v>3.5880064802576412</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E255">
+        <v>-0.30287358847194201</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>565</v>
       </c>
@@ -7599,8 +8368,11 @@
       <c r="D256">
         <v>4.2896850380336229</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E256">
+        <v>0.73354277262477596</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>566</v>
       </c>
@@ -7613,8 +8385,11 @@
       <c r="D257">
         <v>3.5066499754943448</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E257">
+        <v>-0.664449617380382</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>567</v>
       </c>
@@ -7627,8 +8402,11 @@
       <c r="D258">
         <v>4.7536703070751205</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E258">
+        <v>-1.0893367276075501</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>568</v>
       </c>
@@ -7641,8 +8419,11 @@
       <c r="D259">
         <v>3.6606078384369463</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E259">
+        <v>0.44763000960486199</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>168</v>
       </c>
@@ -7655,8 +8436,11 @@
       <c r="D260">
         <v>5.1401592377113303</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E260">
+        <v>0.60102261379667299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>569</v>
       </c>
@@ -7669,8 +8453,11 @@
       <c r="D261">
         <v>3.4094365344956881</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E261">
+        <v>-0.69184462241326605</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>570</v>
       </c>
@@ -7683,8 +8470,11 @@
       <c r="D262">
         <v>3.2471916080478036</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E262">
+        <v>0.75822171790299797</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>571</v>
       </c>
@@ -7697,8 +8487,11 @@
       <c r="D263">
         <v>3.0202455900860992</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E263">
+        <v>3.0986756672805802</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>572</v>
       </c>
@@ -7711,8 +8504,11 @@
       <c r="D264">
         <v>3.1922417019597198</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E264">
+        <v>1.9587241108696201</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>573</v>
       </c>
@@ -7725,8 +8521,11 @@
       <c r="D265">
         <v>2.9150146304580682</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E265">
+        <v>-0.73809704216622996</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>574</v>
       </c>
@@ -7739,8 +8538,11 @@
       <c r="D266">
         <v>3.3802259296957189</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E266">
+        <v>0.82379842448655904</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>169</v>
       </c>
@@ -7753,8 +8555,11 @@
       <c r="D267">
         <v>5.783487991857573</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E267">
+        <v>0.34192824996743498</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>170</v>
       </c>
@@ -7767,8 +8572,11 @@
       <c r="D268">
         <v>5.2492165616876036</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E268">
+        <v>0.53498474889073599</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>29</v>
       </c>
@@ -7781,8 +8589,11 @@
       <c r="D269">
         <v>7.1200241171929646</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E269">
+        <v>-0.37974429863329001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>575</v>
       </c>
@@ -7795,8 +8606,11 @@
       <c r="D270">
         <v>3.7773516907228561</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E270">
+        <v>0.32823782261349099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>171</v>
       </c>
@@ -7809,8 +8623,11 @@
       <c r="D271">
         <v>5.0135053977546455</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E271">
+        <v>-0.45864454462520798</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>576</v>
       </c>
@@ -7823,8 +8640,11 @@
       <c r="D272">
         <v>4.5426570056485644</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E272">
+        <v>1.3079895406577</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>577</v>
       </c>
@@ -7837,8 +8657,11 @@
       <c r="D273">
         <v>4.8879380087778443</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E273">
+        <v>0.92535651439312305</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>578</v>
       </c>
@@ -7851,8 +8674,11 @@
       <c r="D274">
         <v>2.8948154746252333</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E274">
+        <v>0.63096177222744398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>172</v>
       </c>
@@ -7865,8 +8691,11 @@
       <c r="D275">
         <v>6.0971547339034862</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E275">
+        <v>0.48174859284302801</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>579</v>
       </c>
@@ -7879,8 +8708,11 @@
       <c r="D276">
         <v>3.0373049936301499</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E276">
+        <v>0.80953205554646901</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>580</v>
       </c>
@@ -7893,8 +8725,11 @@
       <c r="D277">
         <v>3.1802699322395278</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E277">
+        <v>0.52441989730333705</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -7907,8 +8742,11 @@
       <c r="D278">
         <v>6.8252152696256685</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E278">
+        <v>0.45743085538772199</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>581</v>
       </c>
@@ -7921,8 +8759,11 @@
       <c r="D279">
         <v>4.2356547611843212</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E279">
+        <v>0.42230893194483898</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>173</v>
       </c>
@@ -7935,8 +8776,11 @@
       <c r="D280">
         <v>5.3835521672213744</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E280">
+        <v>0.74788718186756797</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>582</v>
       </c>
@@ -7949,8 +8793,11 @@
       <c r="D281">
         <v>3.8760553563972016</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E281">
+        <v>2.3168462179639602</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>174</v>
       </c>
@@ -7963,8 +8810,11 @@
       <c r="D282">
         <v>5.7484410899866667</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E282">
+        <v>0.71704872517469798</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>583</v>
       </c>
@@ -7977,8 +8827,11 @@
       <c r="D283">
         <v>2.9384800186531708</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E283">
+        <v>0.52483816501673797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>584</v>
       </c>
@@ -7991,8 +8844,11 @@
       <c r="D284">
         <v>2.9905180539326373</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E284">
+        <v>1.89249325648068</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>585</v>
       </c>
@@ -8005,8 +8861,11 @@
       <c r="D285">
         <v>3.7505323848638281</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E285">
+        <v>-0.48845678581579699</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>586</v>
       </c>
@@ -8019,8 +8878,11 @@
       <c r="D286">
         <v>3.7971864602125489</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E286">
+        <v>0.43566451102834602</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>587</v>
       </c>
@@ -8033,8 +8895,11 @@
       <c r="D287">
         <v>3.979373437409238</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E287">
+        <v>4.9090434118421902</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>175</v>
       </c>
@@ -8047,8 +8912,11 @@
       <c r="D288">
         <v>5.1161718343575808</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E288">
+        <v>1.0264191159065199</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>588</v>
       </c>
@@ -8061,8 +8929,11 @@
       <c r="D289">
         <v>3.9991483184402137</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E289">
+        <v>1.21872085475881</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>589</v>
       </c>
@@ -8075,8 +8946,11 @@
       <c r="D290">
         <v>3.4011574695446027</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E290">
+        <v>-0.479823563547913</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>176</v>
       </c>
@@ -8089,8 +8963,11 @@
       <c r="D291">
         <v>5.2734859912400074</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E291">
+        <v>0.61353303223510902</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>590</v>
       </c>
@@ -8103,8 +8980,11 @@
       <c r="D292">
         <v>4.5457825411963482</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E292">
+        <v>-0.67673208100296001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>591</v>
       </c>
@@ -8117,8 +8997,11 @@
       <c r="D293">
         <v>4.7670201018091154</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E293">
+        <v>0.71898891873906601</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>177</v>
       </c>
@@ -8131,8 +9014,11 @@
       <c r="D294">
         <v>5.3765243251056765</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E294">
+        <v>1.21348993648226</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>592</v>
       </c>
@@ -8145,8 +9031,11 @@
       <c r="D295">
         <v>4.0539259984811205</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E295">
+        <v>0.65168047837084098</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>593</v>
       </c>
@@ -8159,8 +9048,11 @@
       <c r="D296">
         <v>3.9806997508408077</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E296">
+        <v>0.98257939568872599</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>594</v>
       </c>
@@ -8173,8 +9065,11 @@
       <c r="D297">
         <v>4.4031971011373621</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E297">
+        <v>0.55074953665199999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>595</v>
       </c>
@@ -8187,8 +9082,11 @@
       <c r="D298">
         <v>4.3842343831191082</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E298">
+        <v>0.53180283548372698</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>31</v>
       </c>
@@ -8201,8 +9099,11 @@
       <c r="D299">
         <v>7.0769851867542579</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E299">
+        <v>0.67602719702288405</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -8215,8 +9116,11 @@
       <c r="D300">
         <v>4.36373673397242</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E300">
+        <v>1.0709572577026101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>597</v>
       </c>
@@ -8229,8 +9133,11 @@
       <c r="D301">
         <v>4.3998418331193108</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E301">
+        <v>0.63304655226391304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>598</v>
       </c>
@@ -8243,8 +9150,11 @@
       <c r="D302">
         <v>4.2369674314548469</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E302">
+        <v>1.08344542700526</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>599</v>
       </c>
@@ -8257,8 +9167,11 @@
       <c r="D303">
         <v>2.8926865176210623</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E303">
+        <v>0.98669890925229498</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>600</v>
       </c>
@@ -8271,8 +9184,11 @@
       <c r="D304">
         <v>4.5181009222172523</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E304">
+        <v>1.24362239299345</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -8285,8 +9201,11 @@
       <c r="D305">
         <v>3.2267263624403499</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E305">
+        <v>0.52733159947290398</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>602</v>
       </c>
@@ -8299,8 +9218,11 @@
       <c r="D306">
         <v>4.9702004971119376</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E306">
+        <v>-0.51180226109914095</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>178</v>
       </c>
@@ -8313,8 +9235,11 @@
       <c r="D307">
         <v>5.8684689169398565</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E307">
+        <v>0.46974841150210001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>603</v>
       </c>
@@ -8327,8 +9252,11 @@
       <c r="D308">
         <v>3.3764594574873392</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E308">
+        <v>1.1305633887336299</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>32</v>
       </c>
@@ -8341,8 +9269,11 @@
       <c r="D309">
         <v>6.4947480691348405</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E309">
+        <v>0.58063818077903295</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>604</v>
       </c>
@@ -8355,8 +9286,11 @@
       <c r="D310">
         <v>4.4280208125754283</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E310">
+        <v>-0.564621809019066</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>605</v>
       </c>
@@ -8369,8 +9303,11 @@
       <c r="D311">
         <v>3.0323978835414964</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E311">
+        <v>1.01046914406949</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>606</v>
       </c>
@@ -8383,8 +9320,11 @@
       <c r="D312">
         <v>3.464751904135567</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E312">
+        <v>-2.14893397873595</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>607</v>
       </c>
@@ -8397,8 +9337,11 @@
       <c r="D313">
         <v>3.4898750315503566</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E313">
+        <v>0.95501971306563604</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>608</v>
       </c>
@@ -8411,8 +9354,11 @@
       <c r="D314">
         <v>4.0166843901357785</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E314">
+        <v>0.40527182526016198</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>179</v>
       </c>
@@ -8425,8 +9371,11 @@
       <c r="D315">
         <v>5.2179392938204829</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E315">
+        <v>0.41031362735029597</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>609</v>
       </c>
@@ -8439,8 +9388,11 @@
       <c r="D316">
         <v>4.571662492162436</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E316">
+        <v>0.40829008597947902</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>180</v>
       </c>
@@ -8453,8 +9405,11 @@
       <c r="D317">
         <v>6.3109359798392912</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E317">
+        <v>-0.35148389128493002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>181</v>
       </c>
@@ -8467,8 +9422,11 @@
       <c r="D318">
         <v>6.360813987748819</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E318">
+        <v>0.63432270533280499</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>610</v>
       </c>
@@ -8481,8 +9439,11 @@
       <c r="D319">
         <v>4.2504945290964997</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E319">
+        <v>0.568264137707157</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>611</v>
       </c>
@@ -8495,8 +9456,11 @@
       <c r="D320">
         <v>4.7318625566473074</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E320">
+        <v>1.0108519414757</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>612</v>
       </c>
@@ -8509,8 +9473,11 @@
       <c r="D321">
         <v>4.565253629904972</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E321">
+        <v>0.61838356657752802</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>613</v>
       </c>
@@ -8523,8 +9490,11 @@
       <c r="D322">
         <v>4.1566590457481034</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E322">
+        <v>1.1626527421150099</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>614</v>
       </c>
@@ -8537,8 +9507,11 @@
       <c r="D323">
         <v>3.8868818762754751</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E323">
+        <v>-0.49300970218947499</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>615</v>
       </c>
@@ -8551,8 +9524,11 @@
       <c r="D324">
         <v>3.5149284426169993</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E324">
+        <v>1.3597727256560099</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>616</v>
       </c>
@@ -8565,8 +9541,11 @@
       <c r="D325">
         <v>3.7127817613531411</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E325">
+        <v>0.71642483804202906</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>617</v>
       </c>
@@ -8579,8 +9558,11 @@
       <c r="D326">
         <v>4.0969693741960915</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E326">
+        <v>-0.81916917070384698</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>618</v>
       </c>
@@ -8593,8 +9575,11 @@
       <c r="D327">
         <v>3.1241306343320181</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E327">
+        <v>1.59649074503377</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>619</v>
       </c>
@@ -8607,8 +9592,11 @@
       <c r="D328">
         <v>3.2134560561813368</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E328">
+        <v>0.97233899293808201</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>620</v>
       </c>
@@ -8621,8 +9609,11 @@
       <c r="D329">
         <v>3.9939988947366993</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E329">
+        <v>-0.37292174698456598</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>621</v>
       </c>
@@ -8635,8 +9626,11 @@
       <c r="D330">
         <v>4.7916793401944959</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E330">
+        <v>0.96515901796017001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>622</v>
       </c>
@@ -8649,8 +9643,11 @@
       <c r="D331">
         <v>3.7468791759532403</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E331">
+        <v>-0.41346730043915397</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>623</v>
       </c>
@@ -8663,8 +9660,11 @@
       <c r="D332">
         <v>4.8883570589270393</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E332">
+        <v>0.90877207474722899</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -8677,8 +9677,11 @@
       <c r="D333">
         <v>7.128072727165514</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E333">
+        <v>1.15131781060827</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>34</v>
       </c>
@@ -8691,8 +9694,11 @@
       <c r="D334">
         <v>7.2078135856026009</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E334">
+        <v>0.66005995637517001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>624</v>
       </c>
@@ -8705,8 +9711,11 @@
       <c r="D335">
         <v>3.3530428275030371</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E335">
+        <v>1.21909628056624</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>625</v>
       </c>
@@ -8719,8 +9728,11 @@
       <c r="D336">
         <v>3.8656184724939346</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E336">
+        <v>-0.62667045048973102</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>626</v>
       </c>
@@ -8733,8 +9745,11 @@
       <c r="D337">
         <v>4.8620303305089543</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E337">
+        <v>1.90196333885654</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>627</v>
       </c>
@@ -8747,8 +9762,11 @@
       <c r="D338">
         <v>3.3951427685543072</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E338">
+        <v>-0.86480336860269003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>628</v>
       </c>
@@ -8761,8 +9779,11 @@
       <c r="D339">
         <v>4.1234459430144543</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E339">
+        <v>-0.57801155439893104</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>629</v>
       </c>
@@ -8775,8 +9796,11 @@
       <c r="D340">
         <v>3.7456636027535271</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E340">
+        <v>-0.73473400368111397</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>630</v>
       </c>
@@ -8789,8 +9813,11 @@
       <c r="D341">
         <v>3.7739195979119984</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E341">
+        <v>0.98823695868563199</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>631</v>
       </c>
@@ -8803,8 +9830,11 @@
       <c r="D342">
         <v>4.2318791738981085</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E342">
+        <v>-0.67750900782859802</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>632</v>
       </c>
@@ -8817,8 +9847,11 @@
       <c r="D343">
         <v>3.5572309694952517</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E343">
+        <v>0.845642765534795</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>182</v>
       </c>
@@ -8831,8 +9864,11 @@
       <c r="D344">
         <v>5.8967218269204773</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E344">
+        <v>1.46830658934143</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -8845,8 +9881,11 @@
       <c r="D345">
         <v>7.9568891150950334</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E345">
+        <v>0.85584679860572199</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>633</v>
       </c>
@@ -8859,8 +9898,11 @@
       <c r="D346">
         <v>4.4226786238201008</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E346">
+        <v>-0.97407617403965197</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>35</v>
       </c>
@@ -8873,8 +9915,11 @@
       <c r="D347">
         <v>7.5993597775481572</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E347">
+        <v>-0.76348822298145402</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>634</v>
       </c>
@@ -8887,8 +9932,11 @@
       <c r="D348">
         <v>3.2578412119418867</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E348">
+        <v>0.85895075472985305</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>183</v>
       </c>
@@ -8901,8 +9949,11 @@
       <c r="D349">
         <v>5.6892384943756813</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E349">
+        <v>-0.791944938092635</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>635</v>
       </c>
@@ -8915,8 +9966,11 @@
       <c r="D350">
         <v>4.0642765684201132</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E350">
+        <v>-0.89223055679240804</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>184</v>
       </c>
@@ -8929,8 +9983,11 @@
       <c r="D351">
         <v>5.1319089978174999</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E351">
+        <v>2.2897032848877399</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -8943,8 +10000,11 @@
       <c r="D352">
         <v>8.4364118308266907</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E352">
+        <v>0.788777775192117</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>185</v>
       </c>
@@ -8957,8 +10017,11 @@
       <c r="D353">
         <v>6.078325613066168</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E353">
+        <v>0.756482029551932</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>36</v>
       </c>
@@ -8971,8 +10034,11 @@
       <c r="D354">
         <v>6.7098185010449702</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E354">
+        <v>-0.44654556220735597</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>37</v>
       </c>
@@ -8985,8 +10051,11 @@
       <c r="D355">
         <v>6.6922148608289191</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E355">
+        <v>-0.60838686441171497</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>186</v>
       </c>
@@ -8999,8 +10068,11 @@
       <c r="D356">
         <v>5.4470751711311838</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E356">
+        <v>0.72851980641629099</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>636</v>
       </c>
@@ -9013,8 +10085,11 @@
       <c r="D357">
         <v>4.1002360170072709</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E357">
+        <v>1.0358605872481701</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>637</v>
       </c>
@@ -9027,8 +10102,11 @@
       <c r="D358">
         <v>3.67174184038128</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E358">
+        <v>1.37363176901489</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>638</v>
       </c>
@@ -9041,8 +10119,11 @@
       <c r="D359">
         <v>4.6504649178218047</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E359">
+        <v>-0.77316846721427102</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>639</v>
       </c>
@@ -9055,8 +10136,11 @@
       <c r="D360">
         <v>4.3814909130433977</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E360">
+        <v>0.84377671293749801</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -9069,8 +10153,11 @@
       <c r="D361">
         <v>6.2605221836122551</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E361">
+        <v>0.80405121187323803</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>188</v>
       </c>
@@ -9083,8 +10170,11 @@
       <c r="D362">
         <v>6.421479753277028</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E362">
+        <v>-0.37099011691179401</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>38</v>
       </c>
@@ -9097,8 +10187,11 @@
       <c r="D363">
         <v>6.6391024943011709</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E363">
+        <v>0.96889390682860199</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>640</v>
       </c>
@@ -9111,8 +10204,11 @@
       <c r="D364">
         <v>2.9076440943674298</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E364">
+        <v>0.84807162541294701</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>641</v>
       </c>
@@ -9125,8 +10221,11 @@
       <c r="D365">
         <v>4.013624299729722</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E365">
+        <v>0.87842784112966499</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>189</v>
       </c>
@@ -9139,8 +10238,11 @@
       <c r="D366">
         <v>5.787120113846913</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E366">
+        <v>-0.85990623942164801</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>39</v>
       </c>
@@ -9153,8 +10255,11 @@
       <c r="D367">
         <v>7.2005769912216691</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E367">
+        <v>1.15674310051851</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>642</v>
       </c>
@@ -9167,8 +10272,11 @@
       <c r="D368">
         <v>4.4165144440973778</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E368">
+        <v>-0.79485484502033399</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>643</v>
       </c>
@@ -9181,8 +10289,11 @@
       <c r="D369">
         <v>3.3418945941668858</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E369">
+        <v>0.96836284581828802</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>644</v>
       </c>
@@ -9195,8 +10306,11 @@
       <c r="D370">
         <v>3.1392374956368898</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E370">
+        <v>0.65101055215750703</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>190</v>
       </c>
@@ -9209,8 +10323,11 @@
       <c r="D371">
         <v>5.0628234000578569</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E371">
+        <v>0.954007098043823</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>645</v>
       </c>
@@ -9223,8 +10340,11 @@
       <c r="D372">
         <v>3.2281906851087672</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E372">
+        <v>0.84673855593337699</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>646</v>
       </c>
@@ -9237,8 +10357,11 @@
       <c r="D373">
         <v>3.1261643287279459</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E373">
+        <v>-0.50776196641329396</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>647</v>
       </c>
@@ -9251,8 +10374,11 @@
       <c r="D374">
         <v>3.5735308518638358</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E374">
+        <v>-0.48489658460943202</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>648</v>
       </c>
@@ -9265,8 +10391,11 @@
       <c r="D375">
         <v>2.9575733435217999</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E375">
+        <v>0.56274781735695301</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>649</v>
       </c>
@@ -9279,8 +10408,11 @@
       <c r="D376">
         <v>4.2809134952923431</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E376">
+        <v>1.3498786270271499</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>191</v>
       </c>
@@ -9293,8 +10425,11 @@
       <c r="D377">
         <v>5.448984987939693</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E377">
+        <v>1.1159705825839601</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>650</v>
       </c>
@@ -9307,8 +10442,11 @@
       <c r="D378">
         <v>4.6315196526692564</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E378">
+        <v>-1.60063131053788</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>651</v>
       </c>
@@ -9321,8 +10459,11 @@
       <c r="D379">
         <v>4.5285804567587711</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E379">
+        <v>1.44094560110965</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>652</v>
       </c>
@@ -9335,8 +10476,11 @@
       <c r="D380">
         <v>4.3476635104906647</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E380">
+        <v>0.71503904238361005</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>653</v>
       </c>
@@ -9349,8 +10493,11 @@
       <c r="D381">
         <v>4.9779169627083304</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E381">
+        <v>0.98181342706957997</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>654</v>
       </c>
@@ -9363,8 +10510,11 @@
       <c r="D382">
         <v>2.9575899307259532</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E382">
+        <v>0.604175562859115</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>40</v>
       </c>
@@ -9377,8 +10527,11 @@
       <c r="D383">
         <v>6.6888700232431724</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E383">
+        <v>0.78341932909573997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>655</v>
       </c>
@@ -9391,8 +10544,11 @@
       <c r="D384">
         <v>4.0830747388916455</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E384">
+        <v>0.94719313756196599</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>656</v>
       </c>
@@ -9405,8 +10561,11 @@
       <c r="D385">
         <v>3.2960751784475844</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E385">
+        <v>-0.81292074183526297</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>192</v>
       </c>
@@ -9419,8 +10578,11 @@
       <c r="D386">
         <v>5.0670354616429645</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E386">
+        <v>1.2226678932703201</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>657</v>
       </c>
@@ -9433,8 +10595,11 @@
       <c r="D387">
         <v>3.1370487593019223</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E387">
+        <v>-1.0444791840077301</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>658</v>
       </c>
@@ -9447,8 +10612,11 @@
       <c r="D388">
         <v>4.6650315632706354</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E388">
+        <v>0.53495243719191599</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>659</v>
       </c>
@@ -9461,8 +10629,11 @@
       <c r="D389">
         <v>4.7415115473898961</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E389">
+        <v>1.03580439515802</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>660</v>
       </c>
@@ -9475,8 +10646,11 @@
       <c r="D390">
         <v>3.6390613707232191</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E390">
+        <v>-0.81624962993768801</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>661</v>
       </c>
@@ -9489,8 +10663,11 @@
       <c r="D391">
         <v>4.6303305985712049</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E391">
+        <v>1.00463945607511</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>662</v>
       </c>
@@ -9503,8 +10680,11 @@
       <c r="D392">
         <v>2.904851845503948</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E392">
+        <v>1.24416041926464</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>663</v>
       </c>
@@ -9517,8 +10697,11 @@
       <c r="D393">
         <v>3.2222056006902822</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E393">
+        <v>1.08258536236404</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>193</v>
       </c>
@@ -9531,8 +10714,11 @@
       <c r="D394">
         <v>6.4141891900165096</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E394">
+        <v>-0.62534712018476601</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>664</v>
       </c>
@@ -9545,8 +10731,11 @@
       <c r="D395">
         <v>4.5686881394537382</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E395">
+        <v>1.6362846249106699</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>665</v>
       </c>
@@ -9559,8 +10748,11 @@
       <c r="D396">
         <v>4.8871277751938544</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E396">
+        <v>0.61076603194661105</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>666</v>
       </c>
@@ -9573,8 +10765,11 @@
       <c r="D397">
         <v>4.7566978261612025</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E397">
+        <v>2.0207876439087098</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>667</v>
       </c>
@@ -9587,8 +10782,11 @@
       <c r="D398">
         <v>3.8892657240302237</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E398">
+        <v>1.1868767308725201</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>668</v>
       </c>
@@ -9601,8 +10799,11 @@
       <c r="D399">
         <v>4.6027165612973961</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E399">
+        <v>1.0026973420530301</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>669</v>
       </c>
@@ -9615,8 +10816,11 @@
       <c r="D400">
         <v>4.2356167977900645</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E400">
+        <v>0.90057123909056702</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>670</v>
       </c>
@@ -9629,8 +10833,11 @@
       <c r="D401">
         <v>4.4170422409645198</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E401">
+        <v>0.92921486427219802</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>671</v>
       </c>
@@ -9643,8 +10850,11 @@
       <c r="D402">
         <v>4.1888022718699824</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E402">
+        <v>-0.86786446950428098</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>672</v>
       </c>
@@ -9657,8 +10867,11 @@
       <c r="D403">
         <v>4.1334925001856266</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E403">
+        <v>-0.68617606562405897</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>673</v>
       </c>
@@ -9671,8 +10884,11 @@
       <c r="D404">
         <v>4.7627306106269796</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E404">
+        <v>-0.73446899779104702</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>41</v>
       </c>
@@ -9685,8 +10901,11 @@
       <c r="D405">
         <v>7.2048429757236976</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E405">
+        <v>0.91902909185221404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>194</v>
       </c>
@@ -9699,8 +10918,11 @@
       <c r="D406">
         <v>5.9653323805431393</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E406">
+        <v>0.78046508997736097</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>195</v>
       </c>
@@ -9713,8 +10935,11 @@
       <c r="D407">
         <v>5.2203503233120365</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E407">
+        <v>1.37375552879922</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>42</v>
       </c>
@@ -9727,8 +10952,11 @@
       <c r="D408">
         <v>6.8146717834898256</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E408">
+        <v>0.69156781273240697</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>674</v>
       </c>
@@ -9741,8 +10969,11 @@
       <c r="D409">
         <v>3.681915284006847</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E409">
+        <v>0.71460956980873602</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>675</v>
       </c>
@@ -9755,8 +10986,11 @@
       <c r="D410">
         <v>4.0292853682889396</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E410">
+        <v>0.83714406959198895</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>676</v>
       </c>
@@ -9769,8 +11003,11 @@
       <c r="D411">
         <v>4.6438470960200231</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E411">
+        <v>-1.12528403708771</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>677</v>
       </c>
@@ -9783,8 +11020,11 @@
       <c r="D412">
         <v>4.1705451666342848</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E412">
+        <v>1.1080249486565099</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>678</v>
       </c>
@@ -9797,8 +11037,11 @@
       <c r="D413">
         <v>4.2048908584619378</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E413">
+        <v>-1.11526159244612</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>679</v>
       </c>
@@ -9811,8 +11054,11 @@
       <c r="D414">
         <v>4.0460903236480474</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E414">
+        <v>3.06692344512921</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>680</v>
       </c>
@@ -9825,8 +11071,11 @@
       <c r="D415">
         <v>3.9230916067748209</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E415">
+        <v>-0.84309764396769404</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>681</v>
       </c>
@@ -9839,8 +11088,11 @@
       <c r="D416">
         <v>4.2725832084423603</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E416">
+        <v>1.38055693470435</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>43</v>
       </c>
@@ -9853,8 +11105,11 @@
       <c r="D417">
         <v>7.2889590754660176</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E417">
+        <v>0.42530760327039102</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>196</v>
       </c>
@@ -9867,8 +11122,11 @@
       <c r="D418">
         <v>5.1760737978605915</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E418">
+        <v>-0.72480218423373399</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>682</v>
       </c>
@@ -9881,8 +11139,11 @@
       <c r="D419">
         <v>2.9495296525325116</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E419">
+        <v>0.492067755789038</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>683</v>
       </c>
@@ -9895,8 +11156,11 @@
       <c r="D420">
         <v>4.3063664721378982</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E420">
+        <v>2.9447323275099002</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>684</v>
       </c>
@@ -9909,8 +11173,11 @@
       <c r="D421">
         <v>2.9078451855761762</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E421">
+        <v>0.54155102971694902</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>197</v>
       </c>
@@ -9923,8 +11190,11 @@
       <c r="D422">
         <v>5.1414871983179822</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E422">
+        <v>1.0120943086009899</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>198</v>
       </c>
@@ -9937,8 +11207,11 @@
       <c r="D423">
         <v>5.7958386339381311</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E423">
+        <v>0.85244006635658098</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>199</v>
       </c>
@@ -9951,8 +11224,11 @@
       <c r="D424">
         <v>5.0985003956562647</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E424">
+        <v>0.74706255261364696</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>44</v>
       </c>
@@ -9965,8 +11241,11 @@
       <c r="D425">
         <v>6.8365756393977923</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E425">
+        <v>1.0990206223088499</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>685</v>
       </c>
@@ -9979,8 +11258,11 @@
       <c r="D426">
         <v>4.9824274991452162</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E426">
+        <v>0.43023091711601802</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>200</v>
       </c>
@@ -9993,8 +11275,11 @@
       <c r="D427">
         <v>6.3824402378781517</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E427">
+        <v>0.90491899655111396</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>201</v>
       </c>
@@ -10007,8 +11292,11 @@
       <c r="D428">
         <v>5.2094429378919207</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E428">
+        <v>1.3281238211369899</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>202</v>
       </c>
@@ -10021,8 +11309,11 @@
       <c r="D429">
         <v>6.1036872877154567</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E429">
+        <v>1.21214634815265</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>686</v>
       </c>
@@ -10035,8 +11326,11 @@
       <c r="D430">
         <v>4.4844987949018229</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E430">
+        <v>0.69409761527876301</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>687</v>
       </c>
@@ -10049,8 +11343,11 @@
       <c r="D431">
         <v>4.4392904505634201</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E431">
+        <v>0.44653051419379902</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>688</v>
       </c>
@@ -10063,8 +11360,11 @@
       <c r="D432">
         <v>4.4436701637765728</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E432">
+        <v>1.0464633403218699</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>45</v>
       </c>
@@ -10077,8 +11377,11 @@
       <c r="D433">
         <v>7.168828937139196</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E433">
+        <v>0.55446476006442003</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>203</v>
       </c>
@@ -10091,8 +11394,11 @@
       <c r="D434">
         <v>6.2219100226241704</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E434">
+        <v>0.76897658728537499</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>46</v>
       </c>
@@ -10105,8 +11411,11 @@
       <c r="D435">
         <v>6.7437995144695737</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E435">
+        <v>0.92578130982936502</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>204</v>
       </c>
@@ -10119,8 +11428,11 @@
       <c r="D436">
         <v>5.288740157044475</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E436">
+        <v>1.34342340521141</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>205</v>
       </c>
@@ -10133,8 +11445,11 @@
       <c r="D437">
         <v>5.2566777573316914</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E437">
+        <v>1.82282759557187</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>689</v>
       </c>
@@ -10147,8 +11462,11 @@
       <c r="D438">
         <v>4.0111523055893281</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E438">
+        <v>1.45781621473339</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>690</v>
       </c>
@@ -10161,8 +11479,11 @@
       <c r="D439">
         <v>3.884646139007093</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E439">
+        <v>-0.62867800214003899</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>206</v>
       </c>
@@ -10175,8 +11496,11 @@
       <c r="D440">
         <v>6.2226220478900673</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E440">
+        <v>0.87514692470409605</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>691</v>
       </c>
@@ -10189,8 +11513,11 @@
       <c r="D441">
         <v>4.1077485593269358</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E441">
+        <v>0.88665583001834103</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>207</v>
       </c>
@@ -10203,8 +11530,11 @@
       <c r="D442">
         <v>5.2915236924154092</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E442">
+        <v>1.2783881177416101</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>208</v>
       </c>
@@ -10217,8 +11547,11 @@
       <c r="D443">
         <v>5.8804622751173588</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E443">
+        <v>1.1225546201537699</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>692</v>
       </c>
@@ -10231,8 +11564,11 @@
       <c r="D444">
         <v>3.5787573922835265</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E444">
+        <v>0.751165281200742</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>693</v>
       </c>
@@ -10245,8 +11581,11 @@
       <c r="D445">
         <v>3.1054733522307272</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E445">
+        <v>-0.70562968342482002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>10</v>
       </c>
@@ -10259,8 +11598,11 @@
       <c r="D446">
         <v>8.3001895163646182</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E446">
+        <v>0.85531480711507601</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>47</v>
       </c>
@@ -10273,8 +11615,11 @@
       <c r="D447">
         <v>7.1550590224958306</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E447">
+        <v>0.81980624150940395</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>694</v>
       </c>
@@ -10287,8 +11632,11 @@
       <c r="D448">
         <v>3.35139676368631</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E448">
+        <v>1.37134821589045</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>209</v>
       </c>
@@ -10301,8 +11649,11 @@
       <c r="D449">
         <v>5.4445449401472858</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E449">
+        <v>-0.86858317135810903</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>695</v>
       </c>
@@ -10315,8 +11666,11 @@
       <c r="D450">
         <v>4.6978358716146991</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E450">
+        <v>0.61403670505128305</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>696</v>
       </c>
@@ -10329,8 +11683,11 @@
       <c r="D451">
         <v>2.9286240727530775</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E451">
+        <v>-1.7672778528612401</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>210</v>
       </c>
@@ -10343,8 +11700,11 @@
       <c r="D452">
         <v>6.025534411593866</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E452">
+        <v>0.97773167751858603</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>211</v>
       </c>
@@ -10357,8 +11717,11 @@
       <c r="D453">
         <v>5.844058179661614</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E453">
+        <v>1.3295791585521199</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>697</v>
       </c>
@@ -10371,8 +11734,11 @@
       <c r="D454">
         <v>3.2847434323123403</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E454">
+        <v>-0.76893366844732802</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>698</v>
       </c>
@@ -10385,8 +11751,11 @@
       <c r="D455">
         <v>3.3171085182006883</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E455">
+        <v>-1.44822208639193</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>699</v>
       </c>
@@ -10399,8 +11768,11 @@
       <c r="D456">
         <v>3.1232909783241696</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E456">
+        <v>2.19569096142967</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>212</v>
       </c>
@@ -10413,8 +11785,11 @@
       <c r="D457">
         <v>5.0118066234859748</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E457">
+        <v>0.83476690580141799</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>700</v>
       </c>
@@ -10427,8 +11802,11 @@
       <c r="D458">
         <v>3.7397069134356045</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E458">
+        <v>0.378262566651619</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>213</v>
       </c>
@@ -10441,8 +11819,11 @@
       <c r="D459">
         <v>5.0807384921908172</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E459">
+        <v>0.79754433053231399</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>701</v>
       </c>
@@ -10455,8 +11836,11 @@
       <c r="D460">
         <v>3.149901500450266</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E460">
+        <v>-1.01793040442493</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>48</v>
       </c>
@@ -10469,8 +11853,11 @@
       <c r="D461">
         <v>7.0789957460132751</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E461">
+        <v>1.30760911738084</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>702</v>
       </c>
@@ -10483,8 +11870,11 @@
       <c r="D462">
         <v>3.4718799625206329</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E462">
+        <v>-0.69214517814490395</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>703</v>
       </c>
@@ -10497,8 +11887,11 @@
       <c r="D463">
         <v>2.9312650917528122</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E463">
+        <v>0.41538440899568502</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>704</v>
       </c>
@@ -10511,8 +11904,11 @@
       <c r="D464">
         <v>4.9132859798308282</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E464">
+        <v>-0.73752132412214899</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>214</v>
       </c>
@@ -10525,8 +11921,11 @@
       <c r="D465">
         <v>5.8008840113386171</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E465">
+        <v>-0.75531841291644997</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>705</v>
       </c>
@@ -10539,8 +11938,11 @@
       <c r="D466">
         <v>3.4342159524777527</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E466">
+        <v>-0.46169818224099501</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>706</v>
       </c>
@@ -10553,8 +11955,11 @@
       <c r="D467">
         <v>4.8588001223032817</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E467">
+        <v>-0.763260404551098</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>215</v>
       </c>
@@ -10567,8 +11972,11 @@
       <c r="D468">
         <v>5.04721872933625</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E468">
+        <v>-1.06674590399865</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>216</v>
       </c>
@@ -10581,8 +11989,11 @@
       <c r="D469">
         <v>5.4066606693038164</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E469">
+        <v>-1.6703852592786701</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>707</v>
       </c>
@@ -10595,8 +12006,11 @@
       <c r="D470">
         <v>3.6715371277890063</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E470">
+        <v>-0.78083384819554702</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>708</v>
       </c>
@@ -10609,8 +12023,11 @@
       <c r="D471">
         <v>4.9690984434524204</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E471">
+        <v>1.65406120714033</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>217</v>
       </c>
@@ -10623,8 +12040,11 @@
       <c r="D472">
         <v>6.4602334729570048</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E472">
+        <v>0.54560746142925098</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>218</v>
       </c>
@@ -10637,8 +12057,11 @@
       <c r="D473">
         <v>5.2523647824643449</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E473">
+        <v>-0.56025940134179597</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>709</v>
       </c>
@@ -10651,8 +12074,11 @@
       <c r="D474">
         <v>3.6785332817615264</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E474">
+        <v>0.70278295151328896</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>219</v>
       </c>
@@ -10665,8 +12091,11 @@
       <c r="D475">
         <v>5.1397976293231942</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E475">
+        <v>1.1689459219195499</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>710</v>
       </c>
@@ -10679,8 +12108,11 @@
       <c r="D476">
         <v>2.9297513495986713</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E476">
+        <v>-0.74191934003630999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>220</v>
       </c>
@@ -10693,8 +12125,11 @@
       <c r="D477">
         <v>5.7165948790395147</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E477">
+        <v>-1.24926475661322</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>711</v>
       </c>
@@ -10707,8 +12142,11 @@
       <c r="D478">
         <v>3.552628310141337</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E478">
+        <v>1.95584555356464</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>49</v>
       </c>
@@ -10721,8 +12159,11 @@
       <c r="D479">
         <v>6.7650223017661633</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E479">
+        <v>-0.58774369384269798</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>221</v>
       </c>
@@ -10735,8 +12176,11 @@
       <c r="D480">
         <v>5.7798707844375521</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E480">
+        <v>0.73045044088445099</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>222</v>
       </c>
@@ -10749,8 +12193,11 @@
       <c r="D481">
         <v>5.2737736529276766</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E481">
+        <v>0.53889099907684002</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>712</v>
       </c>
@@ -10763,8 +12210,11 @@
       <c r="D482">
         <v>3.0249013156213751</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E482">
+        <v>0.89288613448375698</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>223</v>
       </c>
@@ -10777,8 +12227,11 @@
       <c r="D483">
         <v>5.0975632504390527</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E483">
+        <v>-0.94326733131173002</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>713</v>
       </c>
@@ -10791,8 +12244,11 @@
       <c r="D484">
         <v>3.5076737357657932</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E484">
+        <v>-0.65464750531008498</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>714</v>
       </c>
@@ -10805,8 +12261,11 @@
       <c r="D485">
         <v>4.8148700555868702</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E485">
+        <v>-0.82192181359299799</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>715</v>
       </c>
@@ -10819,8 +12278,11 @@
       <c r="D486">
         <v>3.6373591272473198</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E486">
+        <v>-0.77665185645049895</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>716</v>
       </c>
@@ -10833,8 +12295,11 @@
       <c r="D487">
         <v>2.9426808640442581</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E487">
+        <v>0.47083894790169201</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>717</v>
       </c>
@@ -10847,8 +12312,11 @@
       <c r="D488">
         <v>3.755601754247639</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E488">
+        <v>-0.81880386929455495</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>224</v>
       </c>
@@ -10861,8 +12329,11 @@
       <c r="D489">
         <v>5.1413931185605284</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E489">
+        <v>0.43066273590521997</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>718</v>
       </c>
@@ -10875,8 +12346,11 @@
       <c r="D490">
         <v>4.8846580499634999</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E490">
+        <v>-0.66528330717350703</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>719</v>
       </c>
@@ -10889,8 +12363,11 @@
       <c r="D491">
         <v>3.7159457011865995</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E491">
+        <v>-0.83076958749879304</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>50</v>
       </c>
@@ -10903,8 +12380,11 @@
       <c r="D492">
         <v>7.166838803602321</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E492">
+        <v>1.4893752072980799</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>720</v>
       </c>
@@ -10917,8 +12397,11 @@
       <c r="D493">
         <v>4.8835540072877572</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E493">
+        <v>1.1522568259456401</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>721</v>
       </c>
@@ -10931,8 +12414,11 @@
       <c r="D494">
         <v>4.0912925670036415</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E494">
+        <v>-0.89165409558184705</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>225</v>
       </c>
@@ -10945,8 +12431,11 @@
       <c r="D495">
         <v>6.3181547229571393</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E495">
+        <v>0.71474095417160299</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>226</v>
       </c>
@@ -10959,8 +12448,11 @@
       <c r="D496">
         <v>6.3962082358515291</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E496">
+        <v>-0.35045624857526902</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>722</v>
       </c>
@@ -10973,8 +12465,11 @@
       <c r="D497">
         <v>4.9555072331031829</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E497">
+        <v>0.46610821080162501</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>723</v>
       </c>
@@ -10987,8 +12482,11 @@
       <c r="D498">
         <v>3.3510445477902469</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E498">
+        <v>-2.8369174267485602</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>227</v>
       </c>
@@ -11001,8 +12499,11 @@
       <c r="D499">
         <v>5.9954671368328238</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E499">
+        <v>-0.87097889409748597</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>724</v>
       </c>
@@ -11015,8 +12516,11 @@
       <c r="D500">
         <v>3.050296668543643</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E500">
+        <v>-0.54043245410695895</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>725</v>
       </c>
@@ -11029,8 +12533,11 @@
       <c r="D501">
         <v>4.3576522147901944</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E501">
+        <v>1.0274931894313</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>726</v>
       </c>
@@ -11043,8 +12550,11 @@
       <c r="D502">
         <v>3.0072871544067672</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E502">
+        <v>-0.87245783206573702</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>727</v>
       </c>
@@ -11057,8 +12567,11 @@
       <c r="D503">
         <v>3.8743254728929832</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E503">
+        <v>1.28449820583015</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>728</v>
       </c>
@@ -11071,8 +12584,11 @@
       <c r="D504">
         <v>3.3122840338875701</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E504">
+        <v>-0.71603628617501203</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>51</v>
       </c>
@@ -11085,8 +12601,11 @@
       <c r="D505">
         <v>6.8402728812466274</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E505">
+        <v>0.59727443494017296</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>729</v>
       </c>
@@ -11099,8 +12618,11 @@
       <c r="D506">
         <v>4.2283380751785629</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E506">
+        <v>0.81627965099043098</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>730</v>
       </c>
@@ -11113,8 +12635,11 @@
       <c r="D507">
         <v>3.0951271244839198</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E507">
+        <v>0.594074526184448</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>731</v>
       </c>
@@ -11127,8 +12652,11 @@
       <c r="D508">
         <v>4.3760523045093365</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E508">
+        <v>1.1162264302662299</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>732</v>
       </c>
@@ -11141,8 +12669,11 @@
       <c r="D509">
         <v>3.3066263210083031</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E509">
+        <v>-0.50079562851735204</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>733</v>
       </c>
@@ -11155,8 +12686,11 @@
       <c r="D510">
         <v>4.3215983686114239</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E510">
+        <v>0.47820629741974102</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>52</v>
       </c>
@@ -11169,8 +12703,11 @@
       <c r="D511">
         <v>6.5732358154602704</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E511">
+        <v>0.74210770317001395</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>734</v>
       </c>
@@ -11183,8 +12720,11 @@
       <c r="D512">
         <v>3.3946131538715827</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E512">
+        <v>0.75602640443073599</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>735</v>
       </c>
@@ -11197,8 +12737,11 @@
       <c r="D513">
         <v>3.1563098881890803</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E513">
+        <v>1.0754281043637</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>736</v>
       </c>
@@ -11211,8 +12754,11 @@
       <c r="D514">
         <v>4.5091977692798464</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E514">
+        <v>-0.63494983579209097</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>53</v>
       </c>
@@ -11225,8 +12771,11 @@
       <c r="D515">
         <v>6.9708358875088816</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E515">
+        <v>0.75025652504795703</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>54</v>
       </c>
@@ -11239,8 +12788,11 @@
       <c r="D516">
         <v>7.0524047230597278</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E516">
+        <v>0.88119262951460298</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>55</v>
       </c>
@@ -11253,8 +12805,11 @@
       <c r="D517">
         <v>7.3294525866199223</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E517">
+        <v>0.66182714720792901</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>228</v>
       </c>
@@ -11267,8 +12822,11 @@
       <c r="D518">
         <v>5.5346790665226111</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E518">
+        <v>1.12479533383145</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>229</v>
       </c>
@@ -11281,8 +12839,11 @@
       <c r="D519">
         <v>5.2651823298549552</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E519">
+        <v>0.89563758522326797</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>737</v>
       </c>
@@ -11295,8 +12856,11 @@
       <c r="D520">
         <v>3.3839536338042051</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E520">
+        <v>-0.76075127791110997</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>738</v>
       </c>
@@ -11309,8 +12873,11 @@
       <c r="D521">
         <v>3.0022265482658623</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E521">
+        <v>0.90602267427815097</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>739</v>
       </c>
@@ -11323,8 +12890,11 @@
       <c r="D522">
         <v>3.939708385762001</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E522">
+        <v>0.61059462699674605</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>230</v>
       </c>
@@ -11337,8 +12907,11 @@
       <c r="D523">
         <v>5.780669177843242</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E523">
+        <v>0.89944571065512502</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>740</v>
       </c>
@@ -11351,8 +12924,11 @@
       <c r="D524">
         <v>3.995708587818974</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E524">
+        <v>0.59534073555289402</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>741</v>
       </c>
@@ -11365,8 +12941,11 @@
       <c r="D525">
         <v>3.9923799210597877</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E525">
+        <v>-0.69069243176134798</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>742</v>
       </c>
@@ -11379,8 +12958,11 @@
       <c r="D526">
         <v>3.9897357516959149</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E526">
+        <v>3.1039949373178701</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>743</v>
       </c>
@@ -11393,8 +12975,11 @@
       <c r="D527">
         <v>3.6528972676441809</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E527">
+        <v>-1.03916075358583</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>744</v>
       </c>
@@ -11407,8 +12992,11 @@
       <c r="D528">
         <v>3.6747677273622186</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E528">
+        <v>-0.57474709569282101</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>56</v>
       </c>
@@ -11421,8 +13009,11 @@
       <c r="D529">
         <v>7.7278119534171941</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E529">
+        <v>-0.75130317761281196</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>231</v>
       </c>
@@ -11435,8 +13026,11 @@
       <c r="D530">
         <v>5.7980177602569398</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E530">
+        <v>1.8491794143607301</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>745</v>
       </c>
@@ -11449,8 +13043,11 @@
       <c r="D531">
         <v>3.4528092320919432</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E531">
+        <v>-1.4895229391511999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>746</v>
       </c>
@@ -11463,8 +13060,11 @@
       <c r="D532">
         <v>3.4441842711357369</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E532">
+        <v>0.82837227061426</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>232</v>
       </c>
@@ -11477,8 +13077,11 @@
       <c r="D533">
         <v>5.2605364364879854</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E533">
+        <v>-0.85186207435015004</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>747</v>
       </c>
@@ -11491,8 +13094,11 @@
       <c r="D534">
         <v>3.737404873233003</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E534">
+        <v>-1.0300042547944399</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>748</v>
       </c>
@@ -11505,8 +13111,11 @@
       <c r="D535">
         <v>4.4143951648871402</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E535">
+        <v>-0.53748730613045104</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>749</v>
       </c>
@@ -11519,8 +13128,11 @@
       <c r="D536">
         <v>3.5255603106641176</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E536">
+        <v>-1.19925102640721</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>233</v>
       </c>
@@ -11533,8 +13145,11 @@
       <c r="D537">
         <v>6.4135382222446644</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E537">
+        <v>-0.78807654544893002</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>57</v>
       </c>
@@ -11547,8 +13162,11 @@
       <c r="D538">
         <v>6.880747272239776</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E538">
+        <v>1.00312472843829</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>750</v>
       </c>
@@ -11561,8 +13179,11 @@
       <c r="D539">
         <v>4.8861265045470716</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E539">
+        <v>0.96443410883817204</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>751</v>
       </c>
@@ -11575,8 +13196,11 @@
       <c r="D540">
         <v>3.48872639222972</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E540">
+        <v>-0.56998005311559197</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>752</v>
       </c>
@@ -11589,8 +13213,11 @@
       <c r="D541">
         <v>4.722875924775674</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E541">
+        <v>0.81171850298074599</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>753</v>
       </c>
@@ -11603,8 +13230,11 @@
       <c r="D542">
         <v>4.8706316955703413</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E542">
+        <v>1.10682461624498</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>754</v>
       </c>
@@ -11617,8 +13247,11 @@
       <c r="D543">
         <v>3.172018744357874</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E543">
+        <v>-0.75413362384173599</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>234</v>
       </c>
@@ -11631,8 +13264,11 @@
       <c r="D544">
         <v>5.3474057840804905</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E544">
+        <v>1.56313581541327</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>755</v>
       </c>
@@ -11645,8 +13281,11 @@
       <c r="D545">
         <v>3.329045269940877</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E545">
+        <v>0.45607524176819902</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>58</v>
       </c>
@@ -11659,8 +13298,11 @@
       <c r="D546">
         <v>7.7583690555190561</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E546">
+        <v>0.90038197130575404</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>756</v>
       </c>
@@ -11673,8 +13315,11 @@
       <c r="D547">
         <v>3.9476370172073176</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E547">
+        <v>0.70888384499580803</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>235</v>
       </c>
@@ -11687,8 +13332,11 @@
       <c r="D548">
         <v>5.2756307322827158</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E548">
+        <v>-0.92354957007135696</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>236</v>
       </c>
@@ -11701,8 +13349,11 @@
       <c r="D549">
         <v>5.6846554803941158</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E549">
+        <v>1.40638394491489</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -11715,8 +13366,11 @@
       <c r="D550">
         <v>5.0155758781351016</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E550">
+        <v>0.91656896937865295</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>238</v>
       </c>
@@ -11729,8 +13383,11 @@
       <c r="D551">
         <v>5.7926972641549535</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E551">
+        <v>-0.68065637301181903</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>757</v>
       </c>
@@ -11743,8 +13400,11 @@
       <c r="D552">
         <v>3.1123333693849351</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E552">
+        <v>-0.73581403786787303</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>758</v>
       </c>
@@ -11757,8 +13417,11 @@
       <c r="D553">
         <v>3.8132114788728537</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E553">
+        <v>2.0304506383692802</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>239</v>
       </c>
@@ -11771,8 +13434,11 @@
       <c r="D554">
         <v>5.0363421024078763</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E554">
+        <v>0.58351541293013798</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>759</v>
       </c>
@@ -11785,8 +13451,11 @@
       <c r="D555">
         <v>3.7451108657895151</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E555">
+        <v>-1.474659087621</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>59</v>
       </c>
@@ -11799,8 +13468,11 @@
       <c r="D556">
         <v>7.1571166028664202</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E556">
+        <v>-0.45492796548350101</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>60</v>
       </c>
@@ -11813,8 +13485,11 @@
       <c r="D557">
         <v>6.4971676208083107</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E557">
+        <v>0.74484685201127299</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>760</v>
       </c>
@@ -11827,8 +13502,11 @@
       <c r="D558">
         <v>4.4885162114083021</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E558">
+        <v>0.88899291022858196</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>761</v>
       </c>
@@ -11841,8 +13519,11 @@
       <c r="D559">
         <v>3.3456294723519102</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E559">
+        <v>0.99763819852130398</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>240</v>
       </c>
@@ -11855,8 +13536,11 @@
       <c r="D560">
         <v>5.4172495859922574</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E560">
+        <v>-0.98456846981231705</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>762</v>
       </c>
@@ -11869,8 +13553,11 @@
       <c r="D561">
         <v>3.4529415598049189</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E561">
+        <v>-0.89582045812109701</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>763</v>
       </c>
@@ -11883,8 +13570,11 @@
       <c r="D562">
         <v>3.0650584356470927</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E562">
+        <v>-0.91416033441091904</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>241</v>
       </c>
@@ -11897,8 +13587,11 @@
       <c r="D563">
         <v>5.6378194476151426</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E563">
+        <v>0.896436167024527</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>764</v>
       </c>
@@ -11911,8 +13604,11 @@
       <c r="D564">
         <v>3.444421627247833</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E564">
+        <v>-1.4249009932890799</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>242</v>
       </c>
@@ -11925,8 +13621,11 @@
       <c r="D565">
         <v>5.009031544588634</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E565">
+        <v>-0.59481932957203099</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>765</v>
       </c>
@@ -11939,8 +13638,11 @@
       <c r="D566">
         <v>3.4638549704106394</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E566">
+        <v>-0.89191909828661997</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>766</v>
       </c>
@@ -11953,8 +13655,11 @@
       <c r="D567">
         <v>4.2691904150190814</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E567">
+        <v>-0.47871759135327702</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>767</v>
       </c>
@@ -11967,8 +13672,11 @@
       <c r="D568">
         <v>3.248897412700023</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E568">
+        <v>0.98609679682152096</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>61</v>
       </c>
@@ -11981,8 +13689,11 @@
       <c r="D569">
         <v>7.7962667044707663</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E569">
+        <v>0.89529377539738397</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>768</v>
       </c>
@@ -11995,8 +13706,11 @@
       <c r="D570">
         <v>3.4753581757305581</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E570">
+        <v>0.98328330032</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>62</v>
       </c>
@@ -12009,8 +13723,11 @@
       <c r="D571">
         <v>7.7622693662760422</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E571">
+        <v>0.59943418640035195</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>769</v>
       </c>
@@ -12023,8 +13740,11 @@
       <c r="D572">
         <v>3.020590681138279</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E572">
+        <v>-1.3376838424564399</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>243</v>
       </c>
@@ -12037,8 +13757,11 @@
       <c r="D573">
         <v>5.3914502801846824</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E573">
+        <v>0.89752831236135999</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>770</v>
       </c>
@@ -12051,8 +13774,11 @@
       <c r="D574">
         <v>3.5340188477171894</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E574">
+        <v>-1.3631593726851701</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>244</v>
       </c>
@@ -12065,8 +13791,11 @@
       <c r="D575">
         <v>5.8573778968584413</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E575">
+        <v>-1.0472141299137501</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>771</v>
       </c>
@@ -12079,8 +13808,11 @@
       <c r="D576">
         <v>3.5588805279615916</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E576">
+        <v>1.2024583714696699</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>772</v>
       </c>
@@ -12093,8 +13825,11 @@
       <c r="D577">
         <v>3.2560965200570355</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E577">
+        <v>1.0496351198804901</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>773</v>
       </c>
@@ -12107,8 +13842,11 @@
       <c r="D578">
         <v>3.9543414782503294</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E578">
+        <v>1.20880681526477</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>774</v>
       </c>
@@ -12121,8 +13859,11 @@
       <c r="D579">
         <v>2.9734393957190908</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E579">
+        <v>-0.69435812715784095</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>775</v>
       </c>
@@ -12135,8 +13876,11 @@
       <c r="D580">
         <v>3.1081602153505954</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E580">
+        <v>-0.51952252338801597</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>776</v>
       </c>
@@ -12149,8 +13893,11 @@
       <c r="D581">
         <v>4.3847224190302443</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E581">
+        <v>-0.70448711758379801</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>777</v>
       </c>
@@ -12163,8 +13910,11 @@
       <c r="D582">
         <v>3.211719120075391</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E582">
+        <v>-0.79641024260330195</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>245</v>
       </c>
@@ -12177,8 +13927,11 @@
       <c r="D583">
         <v>5.5033897607386644</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E583">
+        <v>0.80816979177545101</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>778</v>
       </c>
@@ -12191,8 +13944,11 @@
       <c r="D584">
         <v>3.507713365727267</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E584">
+        <v>-0.65274326842930896</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>779</v>
       </c>
@@ -12205,8 +13961,11 @@
       <c r="D585">
         <v>4.2941954008700396</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E585">
+        <v>1.29693497450309</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>780</v>
       </c>
@@ -12219,8 +13978,11 @@
       <c r="D586">
         <v>3.1163228279356527</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E586">
+        <v>-0.51240105992084495</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>781</v>
       </c>
@@ -12233,8 +13995,11 @@
       <c r="D587">
         <v>3.5352044327454255</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E587">
+        <v>1.1906140907198099</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>782</v>
       </c>
@@ -12247,8 +14012,11 @@
       <c r="D588">
         <v>2.9765564721319882</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E588">
+        <v>-0.96232696003389495</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>246</v>
       </c>
@@ -12261,8 +14029,11 @@
       <c r="D589">
         <v>5.2970919383426107</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E589">
+        <v>0.33856354336373201</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>783</v>
       </c>
@@ -12275,8 +14046,11 @@
       <c r="D590">
         <v>3.8073189688474933</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E590">
+        <v>-0.91551822625950496</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>63</v>
       </c>
@@ -12289,8 +14063,11 @@
       <c r="D591">
         <v>7.1633564816978819</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E591">
+        <v>0.579094846000204</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>64</v>
       </c>
@@ -12303,8 +14080,11 @@
       <c r="D592">
         <v>7.3997995517678792</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E592">
+        <v>0.79024255918938502</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>784</v>
       </c>
@@ -12317,8 +14097,11 @@
       <c r="D593">
         <v>4.8019472369609248</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E593">
+        <v>0.64596127398424596</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>65</v>
       </c>
@@ -12331,8 +14114,11 @@
       <c r="D594">
         <v>7.2975697946231666</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E594">
+        <v>1.1393741228121901</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>785</v>
       </c>
@@ -12345,8 +14131,11 @@
       <c r="D595">
         <v>3.2664308737278445</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E595">
+        <v>0.57135318536971802</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>786</v>
       </c>
@@ -12359,8 +14148,11 @@
       <c r="D596">
         <v>3.6194062752688994</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E596">
+        <v>-0.50018334081909399</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>787</v>
       </c>
@@ -12373,8 +14165,11 @@
       <c r="D597">
         <v>4.226534305436715</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E597">
+        <v>0.57817462353239901</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>247</v>
       </c>
@@ -12387,8 +14182,11 @@
       <c r="D598">
         <v>5.244077781442563</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E598">
+        <v>0.88006486696402397</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>788</v>
       </c>
@@ -12401,8 +14199,11 @@
       <c r="D599">
         <v>2.892633245125722</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E599">
+        <v>0.74931491626247504</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>789</v>
       </c>
@@ -12415,8 +14216,11 @@
       <c r="D600">
         <v>4.6761309967618008</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E600">
+        <v>-0.738142061284908</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>790</v>
       </c>
@@ -12429,8 +14233,11 @@
       <c r="D601">
         <v>3.269468420139293</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E601">
+        <v>-0.96244943429348295</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>791</v>
       </c>
@@ -12443,8 +14250,11 @@
       <c r="D602">
         <v>3.1725835734889274</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E602">
+        <v>-0.65513967086262603</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>792</v>
       </c>
@@ -12457,8 +14267,11 @@
       <c r="D603">
         <v>3.514476919649212</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E603">
+        <v>0.84417826153866204</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>793</v>
       </c>
@@ -12471,8 +14284,11 @@
       <c r="D604">
         <v>4.6935364899640604</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E604">
+        <v>0.92977000515972696</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>248</v>
       </c>
@@ -12485,8 +14301,11 @@
       <c r="D605">
         <v>6.153482480658762</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E605">
+        <v>0.74479178921936995</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>794</v>
       </c>
@@ -12498,6 +14317,9 @@
       </c>
       <c r="D606">
         <v>4.4759745532372337</v>
+      </c>
+      <c r="E606">
+        <v>1.26905240484948</v>
       </c>
     </row>
   </sheetData>

--- a/RNAseq/Data/PC2genestatsHOM.xlsx
+++ b/RNAseq/Data/PC2genestatsHOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilbar\Documents\MATLAB\DreammistPaper\RNAseq\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6701E2-7AAC-43EB-8BF7-E464BBE20C4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B46D2CC-D0A9-4337-83C4-FD8B78481468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="7430" xr2:uid="{D9D77859-FF50-4E2C-81D0-C99F391DB79E}"/>
   </bookViews>
